--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2060.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2060.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165727963092958</v>
+        <v>0.4983071088790894</v>
       </c>
       <c r="B1">
-        <v>2.823956628032161</v>
+        <v>3.439460277557373</v>
       </c>
       <c r="C1">
-        <v>4.852701065783156</v>
+        <v>4.420679092407227</v>
       </c>
       <c r="D1">
-        <v>2.831441151175595</v>
+        <v>2.50184154510498</v>
       </c>
       <c r="E1">
-        <v>1.20684866626381</v>
+        <v>1.062307238578796</v>
       </c>
     </row>
   </sheetData>
